--- a/20115_BAU_Augments/20115_bau_augment_template.xlsx
+++ b/20115_BAU_Augments/20115_bau_augment_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12564"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="2" r:id="rId1"/>
@@ -730,12 +730,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Charter: 
+CBOBBIPPD ticket</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>BW</t>
   </si>
@@ -918,6 +933,12 @@
   </si>
   <si>
     <t>prr02dnvrco</t>
+  </si>
+  <si>
+    <t>bbr01atlnga to prr02atlnga 1100G</t>
+  </si>
+  <si>
+    <t>PATH</t>
   </si>
 </sst>
 </file>
@@ -1310,32 +1331,32 @@
   <dimension ref="A1:Q351"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -1494,7 +1515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1547,7 +1568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1566,7 +1587,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1585,7 +1606,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1604,7 +1625,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1623,7 +1644,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1642,7 +1663,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1661,7 +1682,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1680,7 +1701,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1699,7 +1720,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1718,7 +1739,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1737,7 +1758,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1756,7 +1777,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1775,7 +1796,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1794,7 +1815,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1813,7 +1834,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1832,7 +1853,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1851,7 +1872,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1870,7 +1891,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1889,7 +1910,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1908,7 +1929,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1927,7 +1948,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1946,7 +1967,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1965,7 +1986,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1984,7 +2005,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2003,7 +2024,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2022,7 +2043,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2041,7 +2062,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2060,7 +2081,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2079,7 +2100,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2098,7 +2119,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2117,7 +2138,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2136,7 +2157,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2155,7 +2176,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2174,7 +2195,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2193,7 +2214,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2212,7 +2233,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2231,7 +2252,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2250,7 +2271,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2269,7 +2290,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2288,7 +2309,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2307,7 +2328,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2326,7 +2347,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2345,7 +2366,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2364,7 +2385,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2383,7 +2404,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2402,7 +2423,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2421,7 +2442,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2440,7 +2461,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2459,7 +2480,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2478,7 +2499,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2497,7 +2518,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2516,7 +2537,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2535,7 +2556,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2554,7 +2575,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2573,7 +2594,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2592,7 +2613,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2611,7 +2632,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2630,7 +2651,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2649,7 +2670,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2668,7 +2689,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2687,7 +2708,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2706,7 +2727,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2725,7 +2746,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2744,7 +2765,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2763,7 +2784,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2782,7 +2803,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2801,7 +2822,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2820,7 +2841,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2839,7 +2860,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2858,7 +2879,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2877,7 +2898,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2896,7 +2917,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2915,7 +2936,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2934,7 +2955,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2953,7 +2974,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2972,7 +2993,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2991,7 +3012,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3010,7 +3031,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3029,7 +3050,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3048,7 +3069,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3067,7 +3088,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3086,7 +3107,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3105,7 +3126,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3124,7 +3145,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3143,7 +3164,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3162,7 +3183,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3181,7 +3202,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3200,7 +3221,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3219,7 +3240,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3238,7 +3259,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3257,7 +3278,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3276,7 +3297,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3295,7 +3316,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3314,7 +3335,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3333,7 +3354,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3352,7 +3373,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3371,7 +3392,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3390,7 +3411,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3409,7 +3430,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3428,7 +3449,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3447,7 +3468,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3466,7 +3487,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3485,7 +3506,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3504,7 +3525,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3523,7 +3544,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3542,7 +3563,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3561,7 +3582,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3580,7 +3601,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3599,7 +3620,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3618,7 +3639,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3637,7 +3658,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3656,7 +3677,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3675,7 +3696,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3694,7 +3715,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3713,7 +3734,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3732,7 +3753,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3751,7 +3772,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3770,7 +3791,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3789,7 +3810,7 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3808,7 +3829,7 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3827,7 +3848,7 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3846,7 +3867,7 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3865,7 +3886,7 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3884,7 +3905,7 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3903,7 +3924,7 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3922,7 +3943,7 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3941,7 +3962,7 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3960,7 +3981,7 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3979,7 +4000,7 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3998,7 +4019,7 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4017,7 +4038,7 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4036,7 +4057,7 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4055,7 +4076,7 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4074,7 +4095,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4093,7 +4114,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4112,7 +4133,7 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4131,7 +4152,7 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4150,7 +4171,7 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4169,7 +4190,7 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4188,7 +4209,7 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4207,7 +4228,7 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4226,7 +4247,7 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4245,7 +4266,7 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4264,7 +4285,7 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4283,7 +4304,7 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4302,7 +4323,7 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4321,7 +4342,7 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4340,7 +4361,7 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4359,7 +4380,7 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4378,7 +4399,7 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4397,7 +4418,7 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4416,7 +4437,7 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4435,7 +4456,7 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4454,7 +4475,7 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4473,7 +4494,7 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4492,7 +4513,7 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4511,7 +4532,7 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4530,7 +4551,7 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4549,7 +4570,7 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4568,7 +4589,7 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4587,7 +4608,7 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4606,7 +4627,7 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4625,7 +4646,7 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4644,7 +4665,7 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4663,7 +4684,7 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4682,7 +4703,7 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4701,7 +4722,7 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4720,7 +4741,7 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4739,7 +4760,7 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4758,7 +4779,7 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4777,7 +4798,7 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4796,7 +4817,7 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4815,7 +4836,7 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4834,7 +4855,7 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4853,7 +4874,7 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4872,7 +4893,7 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4891,7 +4912,7 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4910,7 +4931,7 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4929,7 +4950,7 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4948,7 +4969,7 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4967,7 +4988,7 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4986,7 +5007,7 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5005,7 +5026,7 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5024,7 +5045,7 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5043,7 +5064,7 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5062,7 +5083,7 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5081,7 +5102,7 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5100,7 +5121,7 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5119,7 +5140,7 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5138,7 +5159,7 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5157,7 +5178,7 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5176,7 +5197,7 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5195,7 +5216,7 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5214,7 +5235,7 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5233,7 +5254,7 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5252,7 +5273,7 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5271,7 +5292,7 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5290,7 +5311,7 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5309,7 +5330,7 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5328,7 +5349,7 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5347,7 +5368,7 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5366,7 +5387,7 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5385,7 +5406,7 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5404,7 +5425,7 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5423,7 +5444,7 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5442,7 +5463,7 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5461,7 +5482,7 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5480,7 +5501,7 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5499,7 +5520,7 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5518,7 +5539,7 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5537,7 +5558,7 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5556,7 +5577,7 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5575,7 +5596,7 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -5594,7 +5615,7 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5613,7 +5634,7 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5632,7 +5653,7 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5651,7 +5672,7 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5670,7 +5691,7 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5689,7 +5710,7 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5708,7 +5729,7 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5727,7 +5748,7 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5746,7 +5767,7 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5765,7 +5786,7 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5784,7 +5805,7 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5803,7 +5824,7 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5822,7 +5843,7 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5841,7 +5862,7 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5860,7 +5881,7 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5879,7 +5900,7 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5898,7 +5919,7 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -5917,7 +5938,7 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -5936,7 +5957,7 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5955,7 +5976,7 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5974,7 +5995,7 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -5993,7 +6014,7 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6012,7 +6033,7 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6031,7 +6052,7 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6050,7 +6071,7 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6069,7 +6090,7 @@
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6088,7 +6109,7 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6107,7 +6128,7 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6126,7 +6147,7 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -6145,7 +6166,7 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -6164,7 +6185,7 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6183,7 +6204,7 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6202,7 +6223,7 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6221,7 +6242,7 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6240,7 +6261,7 @@
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6259,7 +6280,7 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6278,7 +6299,7 @@
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6297,7 +6318,7 @@
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -6316,7 +6337,7 @@
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -6335,7 +6356,7 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -6354,7 +6375,7 @@
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -6373,7 +6394,7 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -6392,7 +6413,7 @@
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -6411,7 +6432,7 @@
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -6430,7 +6451,7 @@
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -6449,7 +6470,7 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -6468,7 +6489,7 @@
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -6487,7 +6508,7 @@
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -6506,7 +6527,7 @@
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -6525,7 +6546,7 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -6544,7 +6565,7 @@
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -6563,7 +6584,7 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -6582,7 +6603,7 @@
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -6601,7 +6622,7 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -6620,7 +6641,7 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -6639,7 +6660,7 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -6658,7 +6679,7 @@
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -6677,7 +6698,7 @@
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -6696,7 +6717,7 @@
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -6715,7 +6736,7 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -6734,7 +6755,7 @@
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -6753,7 +6774,7 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -6772,7 +6793,7 @@
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -6791,7 +6812,7 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -6810,7 +6831,7 @@
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -6829,7 +6850,7 @@
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -6848,7 +6869,7 @@
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -6867,7 +6888,7 @@
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -6886,7 +6907,7 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -6905,7 +6926,7 @@
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -6924,7 +6945,7 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -6943,7 +6964,7 @@
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -6962,7 +6983,7 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -6981,7 +7002,7 @@
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -7000,7 +7021,7 @@
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -7019,7 +7040,7 @@
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -7038,7 +7059,7 @@
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -7057,7 +7078,7 @@
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -7076,7 +7097,7 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7095,7 +7116,7 @@
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -7114,7 +7135,7 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -7133,7 +7154,7 @@
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -7152,7 +7173,7 @@
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -7171,7 +7192,7 @@
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -7190,7 +7211,7 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -7209,7 +7230,7 @@
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -7228,7 +7249,7 @@
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -7247,7 +7268,7 @@
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -7266,7 +7287,7 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -7285,7 +7306,7 @@
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -7304,7 +7325,7 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -7323,7 +7344,7 @@
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -7342,7 +7363,7 @@
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -7361,7 +7382,7 @@
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -7380,7 +7401,7 @@
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -7399,7 +7420,7 @@
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -7418,7 +7439,7 @@
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -7437,7 +7458,7 @@
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -7456,7 +7477,7 @@
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -7475,7 +7496,7 @@
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -7494,7 +7515,7 @@
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -7513,7 +7534,7 @@
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -7532,7 +7553,7 @@
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -7551,7 +7572,7 @@
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -7570,7 +7591,7 @@
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -7589,7 +7610,7 @@
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -7608,7 +7629,7 @@
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -7627,7 +7648,7 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -7646,7 +7667,7 @@
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -7665,7 +7686,7 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -7684,7 +7705,7 @@
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -7703,7 +7724,7 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -7722,7 +7743,7 @@
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -7741,7 +7762,7 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -7760,7 +7781,7 @@
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -7779,7 +7800,7 @@
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -7798,7 +7819,7 @@
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -7817,7 +7838,7 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -7836,7 +7857,7 @@
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -7855,7 +7876,7 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -7874,7 +7895,7 @@
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -7893,7 +7914,7 @@
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -7912,7 +7933,7 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -7931,7 +7952,7 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -7950,7 +7971,7 @@
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -7969,7 +7990,7 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -7988,7 +8009,7 @@
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -8007,7 +8028,7 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -8026,7 +8047,7 @@
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -8045,7 +8066,7 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -8064,7 +8085,7 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -8083,7 +8104,7 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -8102,7 +8123,7 @@
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -8121,7 +8142,7 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -8156,22 +8177,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -8203,7 +8224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -8235,7 +8256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -8267,7 +8288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -8299,7 +8320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8311,7 +8332,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -8323,7 +8344,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -8335,7 +8356,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8347,7 +8368,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -8359,7 +8380,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -8371,7 +8392,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -8383,7 +8404,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -8395,7 +8416,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -8407,7 +8428,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8419,7 +8440,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8431,7 +8452,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -8443,7 +8464,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8455,7 +8476,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8467,7 +8488,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -8479,7 +8500,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8491,7 +8512,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -8503,7 +8524,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -8515,7 +8536,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -8527,7 +8548,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -8539,7 +8560,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -8551,7 +8572,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8563,7 +8584,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8575,7 +8596,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8587,7 +8608,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8599,7 +8620,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8611,7 +8632,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8623,7 +8644,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8635,7 +8656,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8647,7 +8668,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8659,7 +8680,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8671,7 +8692,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8683,7 +8704,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8695,7 +8716,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8707,7 +8728,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8719,7 +8740,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8731,7 +8752,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8743,7 +8764,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8755,7 +8776,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8767,7 +8788,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8779,7 +8800,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -8791,7 +8812,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -8803,7 +8824,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -8815,7 +8836,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -8827,7 +8848,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -8839,7 +8860,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -8851,7 +8872,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -8863,7 +8884,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -8875,7 +8896,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -8887,7 +8908,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -8899,7 +8920,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -8911,7 +8932,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -8923,7 +8944,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -8935,7 +8956,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -8947,7 +8968,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -8959,7 +8980,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -8971,7 +8992,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -8983,7 +9004,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -8995,7 +9016,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -9007,7 +9028,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -9019,7 +9040,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -9031,7 +9052,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -9043,7 +9064,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -9055,7 +9076,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -9067,7 +9088,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -9079,7 +9100,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -9091,7 +9112,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -9103,7 +9124,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -9115,7 +9136,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -9127,7 +9148,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -9139,7 +9160,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -9151,7 +9172,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -9163,7 +9184,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -9175,7 +9196,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -9187,7 +9208,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -9199,7 +9220,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -9211,7 +9232,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -9223,7 +9244,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -9235,7 +9256,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -9247,7 +9268,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -9259,7 +9280,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -9271,7 +9292,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -9283,7 +9304,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -9295,7 +9316,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -9307,7 +9328,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -9319,7 +9340,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -9331,7 +9352,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -9343,7 +9364,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -9355,7 +9376,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -9367,7 +9388,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -9379,7 +9400,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -9391,7 +9412,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -9403,7 +9424,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -9415,7 +9436,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -9427,7 +9448,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -9439,7 +9460,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -9451,7 +9472,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -9463,7 +9484,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -9475,7 +9496,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -9487,7 +9508,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9499,7 +9520,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -9511,7 +9532,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -9523,7 +9544,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -9535,7 +9556,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -9547,7 +9568,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -9559,7 +9580,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -9571,7 +9592,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -9583,7 +9604,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -9595,7 +9616,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -9607,7 +9628,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -9619,7 +9640,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -9631,7 +9652,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -9643,7 +9664,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -9655,7 +9676,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -9667,7 +9688,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -9679,7 +9700,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -9691,7 +9712,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -9703,7 +9724,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -9715,7 +9736,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -9727,7 +9748,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -9739,7 +9760,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -9751,7 +9772,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -9763,7 +9784,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -9775,7 +9796,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -9787,7 +9808,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -9799,7 +9820,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -9811,7 +9832,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -9823,7 +9844,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -9835,7 +9856,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -9847,7 +9868,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -9859,7 +9880,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -9871,7 +9892,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -9883,7 +9904,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -9895,7 +9916,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -9907,7 +9928,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9919,7 +9940,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9931,7 +9952,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -9943,7 +9964,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9955,7 +9976,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9967,7 +9988,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9979,7 +10000,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9991,7 +10012,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -10003,7 +10024,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -10015,7 +10036,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -10027,7 +10048,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -10039,7 +10060,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -10051,7 +10072,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -10063,7 +10084,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -10075,7 +10096,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -10087,7 +10108,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -10099,7 +10120,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -10111,7 +10132,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -10123,7 +10144,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -10135,7 +10156,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -10147,7 +10168,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -10159,7 +10180,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -10171,7 +10192,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10183,7 +10204,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10195,7 +10216,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10207,7 +10228,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10219,7 +10240,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -10231,7 +10252,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10243,7 +10264,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10255,7 +10276,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10267,7 +10288,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10279,7 +10300,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10291,7 +10312,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10303,7 +10324,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10315,7 +10336,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -10327,7 +10348,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10339,7 +10360,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10351,7 +10372,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10363,7 +10384,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -10375,7 +10396,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10387,7 +10408,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -10399,7 +10420,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10411,7 +10432,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -10423,7 +10444,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -10435,7 +10456,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10447,7 +10468,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -10459,7 +10480,7 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -10471,7 +10492,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -10483,7 +10504,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -10495,7 +10516,7 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -10507,7 +10528,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -10519,7 +10540,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -10531,7 +10552,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -10543,7 +10564,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -10555,7 +10576,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10567,7 +10588,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10579,7 +10600,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10591,7 +10612,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10603,7 +10624,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10615,7 +10636,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10627,7 +10648,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10639,7 +10660,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10651,7 +10672,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -10663,7 +10684,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -10675,7 +10696,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -10687,7 +10708,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -10699,7 +10720,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -10711,7 +10732,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -10723,7 +10744,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -10735,7 +10756,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -10747,7 +10768,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -10759,7 +10780,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -10771,7 +10792,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -10783,7 +10804,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -10795,7 +10816,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -10807,7 +10828,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -10819,7 +10840,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -10831,7 +10852,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -10843,7 +10864,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -10855,7 +10876,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -10867,7 +10888,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -10879,7 +10900,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -10891,7 +10912,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -10903,7 +10924,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -10915,7 +10936,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -10927,7 +10948,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -10939,7 +10960,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -10951,7 +10972,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -10963,7 +10984,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -10975,7 +10996,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -10987,7 +11008,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -10999,7 +11020,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -11011,7 +11032,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -11023,7 +11044,7 @@
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -11035,7 +11056,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -11047,7 +11068,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -11059,7 +11080,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -11071,7 +11092,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -11083,7 +11104,7 @@
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -11095,7 +11116,7 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -11107,7 +11128,7 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -11119,7 +11140,7 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -11131,7 +11152,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -11143,7 +11164,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -11155,7 +11176,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -11167,7 +11188,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -11179,7 +11200,7 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -11191,7 +11212,7 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -11203,7 +11224,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -11215,7 +11236,7 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -11227,7 +11248,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -11239,7 +11260,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -11251,7 +11272,7 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -11263,7 +11284,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -11275,7 +11296,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -11287,7 +11308,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -11299,7 +11320,7 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -11311,7 +11332,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -11323,7 +11344,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -11345,26 +11366,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
